--- a/Фикс.xlsx
+++ b/Фикс.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python for BI\Перерывы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C73DFAD-20F4-4F6A-88EA-2B1080C7AA41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA9EDD1-74C2-47AB-B1ED-5DD53F20FD16}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0DEC2BF9-5941-428C-BD47-DA135EEEBA58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{0DEC2BF9-5941-428C-BD47-DA135EEEBA58}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Фикс" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>ФИО\Фиксированные перерывы</t>
   </si>
@@ -51,51 +51,18 @@
     <t>Казанина Е. Н.</t>
   </si>
   <si>
-    <t>Перевозчикова Е. И.</t>
-  </si>
-  <si>
     <t>Рыжова С. О.</t>
   </si>
   <si>
-    <t>Крыж И. В.</t>
-  </si>
-  <si>
     <t>Князева К. А.</t>
   </si>
   <si>
     <t>Фалеева Е. А.</t>
   </si>
   <si>
-    <t>Невежина Ю. И.</t>
-  </si>
-  <si>
-    <t>Никитина 2/2 с 9</t>
-  </si>
-  <si>
-    <t>Потапенко 2/2 (0,5) с 9</t>
-  </si>
-  <si>
-    <t>Исхакова А. И.</t>
-  </si>
-  <si>
-    <t>Филимонова О. В.</t>
-  </si>
-  <si>
-    <t>Журавлева Д. С.</t>
-  </si>
-  <si>
     <t>Потапенко Н. А.</t>
   </si>
   <si>
-    <t>Баткаева Е. Н.</t>
-  </si>
-  <si>
-    <t>Клюева Е. И.</t>
-  </si>
-  <si>
-    <t>Ромадин Н. Д.</t>
-  </si>
-  <si>
     <t>обед</t>
   </si>
   <si>
@@ -105,42 +72,6 @@
     <t>фикс</t>
   </si>
   <si>
-    <t>11:00-12:00</t>
-  </si>
-  <si>
-    <t>14:30-15:30</t>
-  </si>
-  <si>
-    <t>16:00-17:30</t>
-  </si>
-  <si>
-    <t>10:20-10:30</t>
-  </si>
-  <si>
-    <t>13:30-13:55</t>
-  </si>
-  <si>
-    <t>15:15-15:25</t>
-  </si>
-  <si>
-    <t>17:40-18:00</t>
-  </si>
-  <si>
-    <t>14:15-14:30</t>
-  </si>
-  <si>
-    <t>17:20-17:50</t>
-  </si>
-  <si>
-    <t>20:30-20:45</t>
-  </si>
-  <si>
-    <t>22:00-22:15</t>
-  </si>
-  <si>
-    <t>19:15-19:30</t>
-  </si>
-  <si>
     <t>10:35-10:50</t>
   </si>
   <si>
@@ -153,34 +84,214 @@
     <t>16:20-16:35</t>
   </si>
   <si>
-    <t>11:25-11:35</t>
-  </si>
-  <si>
-    <t>13:20-13:30</t>
-  </si>
-  <si>
-    <t>15:15-15:45</t>
-  </si>
-  <si>
-    <t>17:15-17:30</t>
-  </si>
-  <si>
     <t>10:50-11:05</t>
   </si>
   <si>
-    <t>13:15-13:30</t>
-  </si>
-  <si>
     <t>15:30-16:00</t>
   </si>
   <si>
-    <t>18:30-18:45</t>
-  </si>
-  <si>
-    <t>Заславская А. К.</t>
-  </si>
-  <si>
     <t>14:00-14:30</t>
+  </si>
+  <si>
+    <t>9:50-10:00</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>14:30-14:45</t>
+  </si>
+  <si>
+    <t>16:00-16:10</t>
+  </si>
+  <si>
+    <t>9:00-9:10</t>
+  </si>
+  <si>
+    <t>10:50-11:00</t>
+  </si>
+  <si>
+    <t>13:15-13:45</t>
+  </si>
+  <si>
+    <t>15:00-15:15</t>
+  </si>
+  <si>
+    <t>17:00-17:10</t>
+  </si>
+  <si>
+    <t>13:10-13:25</t>
+  </si>
+  <si>
+    <t>15:45-16:15</t>
+  </si>
+  <si>
+    <t>18:45-19:00</t>
+  </si>
+  <si>
+    <t>11:05-11:20</t>
+  </si>
+  <si>
+    <t>13:40-13:55</t>
+  </si>
+  <si>
+    <t>16:30-17:00</t>
+  </si>
+  <si>
+    <t>18:20-18:35</t>
+  </si>
+  <si>
+    <t>10:25-10:35</t>
+  </si>
+  <si>
+    <t>12:20-12:30</t>
+  </si>
+  <si>
+    <t>14:45-15:15</t>
+  </si>
+  <si>
+    <t>16:30-16:45</t>
+  </si>
+  <si>
+    <t>14:30-15:00</t>
+  </si>
+  <si>
+    <t>19:30-20:00</t>
+  </si>
+  <si>
+    <t>12:15-12:30</t>
+  </si>
+  <si>
+    <t>вместе</t>
+  </si>
+  <si>
+    <t>Гарбуз Н. А.</t>
+  </si>
+  <si>
+    <t>Пономарева Н. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лазарева Н. П. </t>
+  </si>
+  <si>
+    <t>Калмахелидзе Н. А.</t>
+  </si>
+  <si>
+    <t>Сизякина Д. А.</t>
+  </si>
+  <si>
+    <t>Чирва А. И.</t>
+  </si>
+  <si>
+    <t>Стрижакова А. А.</t>
+  </si>
+  <si>
+    <t>Соколова А. В.</t>
+  </si>
+  <si>
+    <t>Тихомирова В. К.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сивков М. С. </t>
+  </si>
+  <si>
+    <t>Бараева С. В.</t>
+  </si>
+  <si>
+    <t>Никитина Е. В.</t>
+  </si>
+  <si>
+    <t>Пахомова Л. С.</t>
+  </si>
+  <si>
+    <t>Солоха А. В.</t>
+  </si>
+  <si>
+    <t>Султанбекова Е. Г.</t>
+  </si>
+  <si>
+    <t>Бухарская Н. А.</t>
+  </si>
+  <si>
+    <t>Обухова А. П.</t>
+  </si>
+  <si>
+    <t>Бахарева В. О.</t>
+  </si>
+  <si>
+    <t>Ванагс А. Ю.</t>
+  </si>
+  <si>
+    <t>Гребешков Е. Б.</t>
+  </si>
+  <si>
+    <t>Дубровная Д. А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корсункина С. С. </t>
+  </si>
+  <si>
+    <t>Кузнецов Н. Ю.</t>
+  </si>
+  <si>
+    <t>Лагутина И. А.</t>
+  </si>
+  <si>
+    <t>Павлова Ж. А.</t>
+  </si>
+  <si>
+    <t>Пережогина В. А.</t>
+  </si>
+  <si>
+    <t>Сайфутдинова Р. Ш.</t>
+  </si>
+  <si>
+    <t>Сергеева К. В.</t>
+  </si>
+  <si>
+    <t>Толстыженко И. Л.</t>
+  </si>
+  <si>
+    <t>11:00-11:15</t>
+  </si>
+  <si>
+    <t>13:00 - 13:30</t>
+  </si>
+  <si>
+    <t>15:30-15:45</t>
+  </si>
+  <si>
+    <t>08:15-08:30</t>
+  </si>
+  <si>
+    <t>06:00-06:15</t>
+  </si>
+  <si>
+    <t>08:00-08:15</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>12:30-12:45</t>
+  </si>
+  <si>
+    <t>05:50-06:05</t>
+  </si>
+  <si>
+    <t>08:10-08:25</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>13:30-13:45</t>
+  </si>
+  <si>
+    <t>06:30-06:40</t>
+  </si>
+  <si>
+    <t>08:30-08:40</t>
   </si>
 </sst>
 </file>
@@ -220,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -265,37 +376,22 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -303,28 +399,48 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -337,9 +453,242 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -382,16 +731,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{936DDD21-4AF7-4DAF-9D1C-F9FFAB010C65}" name="Таблица2" displayName="Таблица2" ref="A1:G18" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G18" xr:uid="{EB40F12B-5EE2-4EE7-80F8-370C6CF49C22}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{936DDD21-4AF7-4DAF-9D1C-F9FFAB010C65}" name="Таблица2" displayName="Таблица2" ref="A1:G30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G30" xr:uid="{EB40F12B-5EE2-4EE7-80F8-370C6CF49C22}"/>
+  <sortState ref="A2:G30">
+    <sortCondition ref="B1:B30"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{90FB7351-EDA7-408D-AE3C-5C7D825CC3B3}" name="ФИО\Фиксированные перерывы" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0C136833-9118-4C15-83D0-7A5002FBF0F3}" name="Название"/>
-    <tableColumn id="3" xr3:uid="{2FADA288-45EF-430F-9630-A534BD155E28}" name="Перерыв 1 (кратный 5 мин)"/>
-    <tableColumn id="4" xr3:uid="{0A8E9124-4F19-404C-B2AE-1F38381CC0AC}" name="Перерыв 2 (кратный 5 мин)"/>
-    <tableColumn id="5" xr3:uid="{C8567B7C-F0B0-4C30-BC93-95669843C52D}" name="Перерыв 3 (кратный 5 мин)"/>
-    <tableColumn id="6" xr3:uid="{ECB34D74-A7E3-4097-B097-2261E0363BE7}" name="Перерыв 3 (кратный 5 мин)2"/>
-    <tableColumn id="7" xr3:uid="{142F1FCA-C932-47CB-BAC3-1AF3D661E58E}" name="Перерыв 5 (кратный 5 мин)"/>
+    <tableColumn id="1" xr3:uid="{90FB7351-EDA7-408D-AE3C-5C7D825CC3B3}" name="ФИО\Фиксированные перерывы" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0C136833-9118-4C15-83D0-7A5002FBF0F3}" name="Название" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2FADA288-45EF-430F-9630-A534BD155E28}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0A8E9124-4F19-404C-B2AE-1F38381CC0AC}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C8567B7C-F0B0-4C30-BC93-95669843C52D}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{ECB34D74-A7E3-4097-B097-2261E0363BE7}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{142F1FCA-C932-47CB-BAC3-1AF3D661E58E}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -694,22 +1046,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878916FB-CD72-4374-88ED-879FF12BB12B}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,245 +1084,518 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F30" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="G30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Фикс.xlsx
+++ b/Фикс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA9EDD1-74C2-47AB-B1ED-5DD53F20FD16}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B4970-5636-4C04-B98F-8CFF886973EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{0DEC2BF9-5941-428C-BD47-DA135EEEBA58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{0DEC2BF9-5941-428C-BD47-DA135EEEBA58}"/>
   </bookViews>
   <sheets>
     <sheet name="Фикс" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>ФИО\Фиксированные перерывы</t>
   </si>
@@ -159,9 +159,6 @@
     <t>19:30-20:00</t>
   </si>
   <si>
-    <t>12:15-12:30</t>
-  </si>
-  <si>
     <t>вместе</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Пономарева Н. А.</t>
   </si>
   <si>
-    <t xml:space="preserve">Лазарева Н. П. </t>
-  </si>
-  <si>
     <t>Калмахелидзе Н. А.</t>
   </si>
   <si>
@@ -189,12 +183,6 @@
     <t>Соколова А. В.</t>
   </si>
   <si>
-    <t>Тихомирова В. К.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сивков М. С. </t>
-  </si>
-  <si>
     <t>Бараева С. В.</t>
   </si>
   <si>
@@ -210,88 +198,112 @@
     <t>Султанбекова Е. Г.</t>
   </si>
   <si>
-    <t>Бухарская Н. А.</t>
-  </si>
-  <si>
     <t>Обухова А. П.</t>
   </si>
   <si>
+    <t>Ванагс А. Ю.</t>
+  </si>
+  <si>
+    <t>Гребешков Е. Б.</t>
+  </si>
+  <si>
+    <t>Дубровная Д. А.</t>
+  </si>
+  <si>
+    <t>Кузнецов Н. Ю.</t>
+  </si>
+  <si>
+    <t>Лагутина И. А.</t>
+  </si>
+  <si>
+    <t>Павлова Ж. А.</t>
+  </si>
+  <si>
+    <t>Сайфутдинова Р. Ш.</t>
+  </si>
+  <si>
+    <t>Толстыженко И. Л.</t>
+  </si>
+  <si>
+    <t>06:00-06:15</t>
+  </si>
+  <si>
+    <t>08:00-08:15</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>12:30-12:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горячева К. И. </t>
+  </si>
+  <si>
+    <t>Лисовская В. В.</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>Петрова Н. А.</t>
+  </si>
+  <si>
+    <t>09:50-10:05</t>
+  </si>
+  <si>
+    <t>12:55-13:10</t>
+  </si>
+  <si>
+    <t>15:15-15:45</t>
+  </si>
+  <si>
+    <t>18:30-18:45</t>
+  </si>
+  <si>
+    <t>17:30-18:00</t>
+  </si>
+  <si>
+    <t>Юзупкина Е. Д.</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>Зайцева А. К.</t>
+  </si>
+  <si>
+    <t>10:30-10:40</t>
+  </si>
+  <si>
+    <t>14:45-15:00</t>
+  </si>
+  <si>
+    <t>10:00-10:15</t>
+  </si>
+  <si>
+    <t>первый</t>
+  </si>
+  <si>
+    <t>Охоботова К. М.</t>
+  </si>
+  <si>
+    <t>Лазарева Н. П.</t>
+  </si>
+  <si>
+    <t>Корсункина С. С.</t>
+  </si>
+  <si>
     <t>Бахарева В. О.</t>
   </si>
   <si>
-    <t>Ванагс А. Ю.</t>
-  </si>
-  <si>
-    <t>Гребешков Е. Б.</t>
-  </si>
-  <si>
-    <t>Дубровная Д. А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корсункина С. С. </t>
-  </si>
-  <si>
-    <t>Кузнецов Н. Ю.</t>
-  </si>
-  <si>
-    <t>Лагутина И. А.</t>
-  </si>
-  <si>
-    <t>Павлова Ж. А.</t>
-  </si>
-  <si>
-    <t>Пережогина В. А.</t>
-  </si>
-  <si>
-    <t>Сайфутдинова Р. Ш.</t>
-  </si>
-  <si>
-    <t>Сергеева К. В.</t>
-  </si>
-  <si>
-    <t>Толстыженко И. Л.</t>
-  </si>
-  <si>
-    <t>11:00-11:15</t>
-  </si>
-  <si>
-    <t>13:00 - 13:30</t>
-  </si>
-  <si>
-    <t>15:30-15:45</t>
-  </si>
-  <si>
-    <t>08:15-08:30</t>
-  </si>
-  <si>
-    <t>06:00-06:15</t>
-  </si>
-  <si>
-    <t>08:00-08:15</t>
-  </si>
-  <si>
-    <t>10:00-10:30</t>
-  </si>
-  <si>
-    <t>12:30-12:45</t>
-  </si>
-  <si>
-    <t>05:50-06:05</t>
-  </si>
-  <si>
-    <t>08:10-08:25</t>
-  </si>
-  <si>
-    <t>10:30-11:00</t>
-  </si>
-  <si>
-    <t>13:30-13:45</t>
-  </si>
-  <si>
-    <t>06:30-06:40</t>
-  </si>
-  <si>
-    <t>08:30-08:40</t>
+    <t>Бухирева Н. Ю.</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>08:00-08:10</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -387,11 +399,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -414,14 +454,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -436,10 +501,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -511,7 +576,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -619,6 +683,43 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -731,19 +832,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{936DDD21-4AF7-4DAF-9D1C-F9FFAB010C65}" name="Таблица2" displayName="Таблица2" ref="A1:G30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G30" xr:uid="{EB40F12B-5EE2-4EE7-80F8-370C6CF49C22}"/>
-  <sortState ref="A2:G30">
-    <sortCondition ref="B1:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{936DDD21-4AF7-4DAF-9D1C-F9FFAB010C65}" name="Таблица2" displayName="Таблица2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H31" xr:uid="{EB40F12B-5EE2-4EE7-80F8-370C6CF49C22}"/>
+  <sortState ref="A2:H31">
+    <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{90FB7351-EDA7-408D-AE3C-5C7D825CC3B3}" name="ФИО\Фиксированные перерывы" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0C136833-9118-4C15-83D0-7A5002FBF0F3}" name="Название" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2FADA288-45EF-430F-9630-A534BD155E28}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0A8E9124-4F19-404C-B2AE-1F38381CC0AC}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C8567B7C-F0B0-4C30-BC93-95669843C52D}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{ECB34D74-A7E3-4097-B097-2261E0363BE7}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{142F1FCA-C932-47CB-BAC3-1AF3D661E58E}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{90FB7351-EDA7-408D-AE3C-5C7D825CC3B3}" name="ФИО\Фиксированные перерывы" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0C136833-9118-4C15-83D0-7A5002FBF0F3}" name="Название" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2E6463C0-D3B4-4E70-93D6-28F4DDFFE0E0}" name="Часы" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2FADA288-45EF-430F-9630-A534BD155E28}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0A8E9124-4F19-404C-B2AE-1F38381CC0AC}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{C8567B7C-F0B0-4C30-BC93-95669843C52D}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{ECB34D74-A7E3-4097-B097-2261E0363BE7}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{142F1FCA-C932-47CB-BAC3-1AF3D661E58E}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1046,554 +1148,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878916FB-CD72-4374-88ED-879FF12BB12B}">
-  <dimension ref="A1:G30"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="15">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C3" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C4" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="14">
+        <v>11</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="15">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="15">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
+      <c r="C23" s="7">
+        <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>34</v>
+      <c r="C24" s="7">
+        <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>23</v>
+      <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>15</v>
+      <c r="C27" s="7">
+        <v>11</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="15">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="18">
+        <v>8</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Фикс.xlsx
+++ b/Фикс.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuri.golubev\Documents\Перерывы\ПерерывыКЦ.2022.03.10.актуальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B4970-5636-4C04-B98F-8CFF886973EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E660E8D-6E3D-417D-BE24-A16880A6F817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{0DEC2BF9-5941-428C-BD47-DA135EEEBA58}"/>
   </bookViews>
   <sheets>
     <sheet name="Фикс" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>ФИО\Фиксированные перерывы</t>
   </si>
@@ -84,27 +84,18 @@
     <t>16:20-16:35</t>
   </si>
   <si>
-    <t>10:50-11:05</t>
-  </si>
-  <si>
     <t>15:30-16:00</t>
   </si>
   <si>
     <t>14:00-14:30</t>
   </si>
   <si>
-    <t>9:50-10:00</t>
-  </si>
-  <si>
     <t>12:00-12:30</t>
   </si>
   <si>
     <t>14:30-14:45</t>
   </si>
   <si>
-    <t>16:00-16:10</t>
-  </si>
-  <si>
     <t>9:00-9:10</t>
   </si>
   <si>
@@ -120,39 +111,12 @@
     <t>17:00-17:10</t>
   </si>
   <si>
-    <t>13:10-13:25</t>
-  </si>
-  <si>
-    <t>15:45-16:15</t>
-  </si>
-  <si>
-    <t>18:45-19:00</t>
-  </si>
-  <si>
-    <t>11:05-11:20</t>
-  </si>
-  <si>
-    <t>13:40-13:55</t>
-  </si>
-  <si>
     <t>16:30-17:00</t>
   </si>
   <si>
-    <t>18:20-18:35</t>
-  </si>
-  <si>
-    <t>10:25-10:35</t>
-  </si>
-  <si>
     <t>12:20-12:30</t>
   </si>
   <si>
-    <t>14:45-15:15</t>
-  </si>
-  <si>
-    <t>16:30-16:45</t>
-  </si>
-  <si>
     <t>14:30-15:00</t>
   </si>
   <si>
@@ -201,30 +165,12 @@
     <t>Обухова А. П.</t>
   </si>
   <si>
-    <t>Ванагс А. Ю.</t>
-  </si>
-  <si>
-    <t>Гребешков Е. Б.</t>
-  </si>
-  <si>
-    <t>Дубровная Д. А.</t>
-  </si>
-  <si>
     <t>Кузнецов Н. Ю.</t>
   </si>
   <si>
-    <t>Лагутина И. А.</t>
-  </si>
-  <si>
-    <t>Павлова Ж. А.</t>
-  </si>
-  <si>
     <t>Сайфутдинова Р. Ш.</t>
   </si>
   <si>
-    <t>Толстыженко И. Л.</t>
-  </si>
-  <si>
     <t>06:00-06:15</t>
   </si>
   <si>
@@ -237,9 +183,6 @@
     <t>12:30-12:45</t>
   </si>
   <si>
-    <t xml:space="preserve">Горячева К. И. </t>
-  </si>
-  <si>
     <t>Лисовская В. В.</t>
   </si>
   <si>
@@ -249,18 +192,9 @@
     <t>Петрова Н. А.</t>
   </si>
   <si>
-    <t>09:50-10:05</t>
-  </si>
-  <si>
-    <t>12:55-13:10</t>
-  </si>
-  <si>
     <t>15:15-15:45</t>
   </si>
   <si>
-    <t>18:30-18:45</t>
-  </si>
-  <si>
     <t>17:30-18:00</t>
   </si>
   <si>
@@ -303,14 +237,50 @@
     <t>Часы</t>
   </si>
   <si>
-    <t>08:00-08:10</t>
+    <t>Матвеева Е. Д.</t>
+  </si>
+  <si>
+    <t>Тихомирова В. К.</t>
+  </si>
+  <si>
+    <t>13:00-13:30</t>
+  </si>
+  <si>
+    <t>Бухарская Н. А.</t>
+  </si>
+  <si>
+    <t>Горячева К. И.</t>
+  </si>
+  <si>
+    <t>16:20-16:45</t>
+  </si>
+  <si>
+    <t>Любенко Ю. В.</t>
+  </si>
+  <si>
+    <t>11:00-11:10</t>
+  </si>
+  <si>
+    <t>12:50-13:00</t>
+  </si>
+  <si>
+    <t>17:00-17:15</t>
+  </si>
+  <si>
+    <t>Сидоренко О. Г.</t>
+  </si>
+  <si>
+    <t>12:15-12:30</t>
+  </si>
+  <si>
+    <t>19:00-19:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +298,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -343,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -407,21 +392,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -431,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -450,21 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,7 +428,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,6 +449,176 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -530,8 +669,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -540,7 +677,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -566,8 +702,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -599,194 +733,13 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+          <fgColor rgb="FF000000"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -805,8 +758,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -832,20 +783,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{936DDD21-4AF7-4DAF-9D1C-F9FFAB010C65}" name="Таблица2" displayName="Таблица2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H31" xr:uid="{EB40F12B-5EE2-4EE7-80F8-370C6CF49C22}"/>
-  <sortState ref="A2:H31">
-    <sortCondition ref="B1:B31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C229A4F-E2D9-44A6-930A-E717C9D4B7BD}" name="Таблица23" displayName="Таблица23" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H30" xr:uid="{AB6E5A8B-A77A-41A0-A005-290A716B3752}"/>
+  <sortState ref="A2:H30">
+    <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{90FB7351-EDA7-408D-AE3C-5C7D825CC3B3}" name="ФИО\Фиксированные перерывы" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0C136833-9118-4C15-83D0-7A5002FBF0F3}" name="Название" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2E6463C0-D3B4-4E70-93D6-28F4DDFFE0E0}" name="Часы" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2FADA288-45EF-430F-9630-A534BD155E28}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{0A8E9124-4F19-404C-B2AE-1F38381CC0AC}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{C8567B7C-F0B0-4C30-BC93-95669843C52D}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{ECB34D74-A7E3-4097-B097-2261E0363BE7}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{142F1FCA-C932-47CB-BAC3-1AF3D661E58E}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9CC411F6-1586-4C78-9AFA-C0B5A8565E9D}" name="ФИО\Фиксированные перерывы" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3E50A8DE-3013-471C-A7A9-5808E6F94496}" name="Название" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{0FF076FE-1411-47D4-A8AE-4B91F36523B0}" name="Часы" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0A69DAE9-19D7-4D61-879D-FCBF61E3E968}" name="Перерыв 1 (кратный 5 мин)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{82B64A9A-4A6F-4AFD-B15C-8AED380FE3E5}" name="Перерыв 2 (кратный 5 мин)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8B11270E-D187-4A86-AF36-1532497D5D7B}" name="Перерыв 3 (кратный 5 мин)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B19AF7A4-6E5A-44A0-A279-C440F0A0F518}" name="Перерыв 3 (кратный 5 мин)2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{7C7316C1-2E08-492C-A48C-E78F571DA507}" name="Перерыв 5 (кратный 5 мин)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,33 +1102,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>91</v>
+      <c r="C1" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1195,135 +1146,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="15">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>88</v>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1331,7 +1282,7 @@
       <c r="C9" s="7">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="7"/>
@@ -1339,63 +1290,63 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>92</v>
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
+      <c r="D11" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
-        <v>11</v>
+      <c r="C12" s="9">
+        <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -1404,410 +1355,370 @@
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>11</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="B30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="14">
-        <v>11</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="14">
-        <v>11</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="15">
-        <v>11</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="15">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="15">
-        <v>8</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7">
-        <v>11</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="F30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="7">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="7">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="7">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="7">
-        <v>11</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="15">
-        <v>8</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="18">
-        <v>8</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Фикс.xlsx
+++ b/Фикс.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuri.golubev\Documents\Перерывы\ПерерывыКЦ.2022.03.10.актуальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E660E8D-6E3D-417D-BE24-A16880A6F817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C98034-2982-4FA3-990E-614C30520243}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{0DEC2BF9-5941-428C-BD47-DA135EEEBA58}"/>
   </bookViews>
   <sheets>
     <sheet name="Фикс" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>ФИО\Фиксированные перерывы</t>
   </si>
@@ -1102,25 +1102,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>70</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>67</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>54</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>74</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>68</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>57</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>59</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>64</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="C28" s="7">
         <v>11</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E28" s="14"/>
@@ -1652,7 +1652,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>80</v>
       </c>
@@ -1701,24 +1701,6 @@
       <c r="H30" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="7">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Фикс.xlsx
+++ b/Фикс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C98034-2982-4FA3-990E-614C30520243}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2313A5-356F-4FC8-A425-1DE6B69B704B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{0DEC2BF9-5941-428C-BD47-DA135EEEBA58}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>ФИО\Фиксированные перерывы</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Гарбуз Н. А.</t>
   </si>
   <si>
-    <t>Пономарева Н. А.</t>
-  </si>
-  <si>
     <t>Калмахелидзе Н. А.</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>Юзупкина Е. Д.</t>
   </si>
   <si>
-    <t>11:30-12:00</t>
-  </si>
-  <si>
     <t>Зайцева А. К.</t>
   </si>
   <si>
@@ -225,12 +219,6 @@
     <t>Лазарева Н. П.</t>
   </si>
   <si>
-    <t>Корсункина С. С.</t>
-  </si>
-  <si>
-    <t>Бахарева В. О.</t>
-  </si>
-  <si>
     <t>Бухирева Н. Ю.</t>
   </si>
   <si>
@@ -274,13 +262,16 @@
   </si>
   <si>
     <t>19:00-19:15</t>
+  </si>
+  <si>
+    <t>Пономарёва Н. А.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +304,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +324,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,10 +402,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -410,43 +416,41 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -783,10 +787,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C229A4F-E2D9-44A6-930A-E717C9D4B7BD}" name="Таблица23" displayName="Таблица23" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H30" xr:uid="{AB6E5A8B-A77A-41A0-A005-290A716B3752}"/>
-  <sortState ref="A2:H30">
-    <sortCondition ref="B1:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C229A4F-E2D9-44A6-930A-E717C9D4B7BD}" name="Таблица23" displayName="Таблица23" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H28" xr:uid="{AB6E5A8B-A77A-41A0-A005-290A716B3752}"/>
+  <sortState ref="A2:H28">
+    <sortCondition ref="B1:B28"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9CC411F6-1586-4C78-9AFA-C0B5A8565E9D}" name="ФИО\Фиксированные перерывы" dataDxfId="7"/>
@@ -1102,17 +1106,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
@@ -1127,8 +1131,8 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>69</v>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1147,559 +1151,523 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="16">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="9">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="7">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="9">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="9">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="9">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="16">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="9">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>8</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="C16" s="9">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
+      <c r="A18" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="16">
         <v>8</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="9">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9">
+        <v>11</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="7">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="C23" s="9">
+        <v>11</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>8</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>8</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7">
-        <v>11</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="9">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7">
-        <v>11</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="7">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="7">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C28" s="9">
+        <v>11</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="F28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="7">
-        <v>11</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
